--- a/Simulaciones/simulaciones.xlsx
+++ b/Simulaciones/simulaciones.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocío Parra\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rochi\Google Drive\2019 - 1C\Electrónica II\TP\E2_TP1\Simulaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0C4D5-0526-4FD3-B192-09A47AF03649}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC375988-F938-42B7-837C-7D0BE362FB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="6015" windowWidth="10470" windowHeight="7875" activeTab="1" xr2:uid="{7E579FFF-E60E-41A8-9FDF-1501D754C717}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{7E579FFF-E60E-41A8-9FDF-1501D754C717}"/>
   </bookViews>
   <sheets>
     <sheet name="Rendimiento" sheetId="1" r:id="rId1"/>
     <sheet name="PSRR" sheetId="3" r:id="rId2"/>
     <sheet name="Rout" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -150,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,13 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C06B9D-6329-4EA8-9F48-82BD14AC4153}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -497,11 +499,11 @@
         <v>1.3529999999999998</v>
       </c>
       <c r="G2">
-        <f>0.99*A2</f>
+        <f t="shared" ref="G2:G8" si="0">0.99*A2</f>
         <v>8.91</v>
       </c>
       <c r="H2" s="1">
-        <f>47000*(A2/8.2-1)</f>
+        <f t="shared" ref="H2:H8" si="1">47000*(A2/8.2-1)</f>
         <v>4585.3658536585408</v>
       </c>
     </row>
@@ -513,23 +515,23 @@
         <v>11.273</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">A3/B3*100</f>
+        <f t="shared" ref="C3:C8" si="2">A3/B3*100</f>
         <v>88.707531269404768</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">B3-A3</f>
+        <f t="shared" ref="D3:D8" si="3">B3-A3</f>
         <v>1.2729999999999997</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">B3-G3</f>
+        <f t="shared" ref="E3:E8" si="4">B3-G3</f>
         <v>1.3729999999999993</v>
       </c>
       <c r="G3">
-        <f>0.99*A3</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="H3" s="1">
-        <f>47000*(A3/8.2-1)</f>
+        <f t="shared" si="1"/>
         <v>10317.073170731717</v>
       </c>
     </row>
@@ -541,23 +543,23 @@
         <v>12.281000000000001</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>89.569253318133704</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>1.2810000000000006</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>1.391</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>89.569253318133704</v>
-      </c>
-      <c r="D4">
+        <v>10.89</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>1.2810000000000006</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>1.391</v>
-      </c>
-      <c r="G4">
-        <f>0.99*A4</f>
-        <v>10.89</v>
-      </c>
-      <c r="H4" s="1">
-        <f>47000*(A4/8.2-1)</f>
         <v>16048.780487804881</v>
       </c>
     </row>
@@ -569,23 +571,23 @@
         <v>13.286</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>90.320638265843741</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>1.2859999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>1.4060000000000006</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>90.320638265843741</v>
-      </c>
-      <c r="D5">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>1.2859999999999996</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>1.4060000000000006</v>
-      </c>
-      <c r="G5">
-        <f>0.99*A5</f>
-        <v>11.879999999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <f>47000*(A5/8.2-1)</f>
         <v>21780.487804878059</v>
       </c>
     </row>
@@ -597,23 +599,23 @@
         <v>14.29</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>90.972708187543745</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>1.2899999999999991</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1.42</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>90.972708187543745</v>
-      </c>
-      <c r="D6">
+        <v>12.87</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>1.2899999999999991</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>1.42</v>
-      </c>
-      <c r="G6">
-        <f>0.99*A6</f>
-        <v>12.87</v>
-      </c>
-      <c r="H6" s="1">
-        <f>47000*(A6/8.2-1)</f>
         <v>27512.195121951223</v>
       </c>
     </row>
@@ -625,23 +627,23 @@
         <v>15.292999999999999</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>91.545151376446739</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>1.2929999999999993</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>1.4329999999999998</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>91.545151376446739</v>
-      </c>
-      <c r="D7">
+        <v>13.86</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>1.2929999999999993</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>1.4329999999999998</v>
-      </c>
-      <c r="G7">
-        <f>0.99*A7</f>
-        <v>13.86</v>
-      </c>
-      <c r="H7" s="1">
-        <f>47000*(A7/8.2-1)</f>
         <v>33243.902439024401</v>
       </c>
     </row>
@@ -653,24 +655,30 @@
         <v>16.295000000000002</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>92.052776925437243</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1.2950000000000017</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>1.4450000000000021</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>92.052776925437243</v>
-      </c>
-      <c r="D8">
+        <v>14.85</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>1.2950000000000017</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.4450000000000021</v>
-      </c>
-      <c r="G8">
-        <f>0.99*A8</f>
-        <v>14.85</v>
-      </c>
-      <c r="H8" s="1">
-        <f>47000*(A8/8.2-1)</f>
         <v>38975.609756097561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>SUM(D2:D8)/7</f>
+        <v>1.2829999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -682,11 +690,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B5BED2-4E33-4C9D-9B7F-9C1FFFFAB050}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
@@ -780,13 +788,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFB5E75-177D-4567-8B8E-9ED20D9FF2C4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -852,6 +860,11 @@
         <v>6.908327176930476E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1.9073486E-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
